--- a/datatypes.xlsx
+++ b/datatypes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve">9,223,372,036,854,775,807
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="205" formatCode="0.000000000000000000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -60,8 +69,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -342,32 +352,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.4140625" customWidth="1"/>
+    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="6" max="6" width="24.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>4.2</v>
+        <v>12345</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4.17</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <f>A1-A2</f>
-        <v>3.0000000000000249E-2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9.2233720368547697E+18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/datatypes.xlsx
+++ b/datatypes.xlsx
@@ -19,21 +19,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">9,223,372,036,854,775,807
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="205" formatCode="0.000000000000000000E+00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +41,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -66,15 +68,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="205" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -352,40 +359,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.4140625" customWidth="1"/>
-    <col min="2" max="2" width="29.08203125" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>12345</v>
+        <v>43978</v>
+      </c>
+      <c r="B1" s="1">
+        <v>43978</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>45</v>
+        <v>43978</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43978</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>9.2233720368547697E+18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3">
+        <v>43978</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>43975.586111111108</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43975.586875000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>43975.584027777775</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43975.584027777775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/datatypes.xlsx
+++ b/datatypes.xlsx
@@ -18,15 +18,11 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="176" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -74,10 +70,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -362,7 +359,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -376,7 +373,7 @@
       <c r="A1">
         <v>43978</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="3">
         <v>43978</v>
       </c>
     </row>
@@ -384,7 +381,7 @@
       <c r="A2">
         <v>43978</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>43978</v>
       </c>
     </row>
@@ -392,7 +389,7 @@
       <c r="A3">
         <v>43978</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>43978</v>
       </c>
     </row>
@@ -400,7 +397,7 @@
       <c r="A4">
         <v>43975.586111111108</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>43975.586875000001</v>
       </c>
     </row>
@@ -408,7 +405,7 @@
       <c r="A5">
         <v>43975.584027777775</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>43975.584027777775</v>
       </c>
     </row>

--- a/datatypes.xlsx
+++ b/datatypes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\PythonWithOpenpyxl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coding\PythonWithOpenpyxl\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>2020-5-25T20:07</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变单元格 - 数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依然是数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他货币等类数值格式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可变单元格 - 日期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下无法解析的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串或者函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29,6 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,12 +104,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -351,48 +389,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.25" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
-    <col min="6" max="6" width="24.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1234.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>44170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <f>45+34</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="str">
+        <f>"fsdjk"</f>
+        <v>fsdjk</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
-        <v>43976.838194444441</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>43976</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.83819444444444446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B3" s="3">
-        <v>43976</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
-        <v>43976</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
-        <v>18408</v>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
